--- a/Excel/Mingguan/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
+++ b/Excel/Mingguan/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
@@ -462,7 +462,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:I37"/>
+      <selection activeCell="C7" sqref="A1:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/Excel/Mingguan/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
+++ b/Excel/Mingguan/List Tugas Minggu Ke-3 (9 Agustus 2021 - 15 Agustus 2021).xlsx
@@ -1711,7 +1711,11 @@
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr"/>
-      <c r="H30" s="9" t="inlineStr"/>
+      <c r="H30" s="8" t="inlineStr">
+        <is>
+          <t>ü</t>
+        </is>
+      </c>
       <c r="I30" s="3" t="inlineStr"/>
     </row>
     <row r="31" ht="15.6" customHeight="1" s="1">
